--- a/testcases/Global Numbers TC-014.xlsx
+++ b/testcases/Global Numbers TC-014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\cypress_cucumber\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\webdriverio_docker_compose_ghAction\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AAB821-6F8C-4511-B76F-0369841274B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE090E5-DDA6-452F-9B0B-D198FAF9A7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="1680" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="5490" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>Click "Global Numbers" link</t>
   </si>
   <si>
-    <t xml:space="preserve">Scroll to Headline "Configure your numbers in-depth with Mission Control" </t>
-  </si>
-  <si>
-    <t>"Configure your numbers in-depth with Mission Control" should include the following texts:                                                                         "Find local, national, mobile or toll-free numbers across the globe with granular searching.",                                                                       "Purchase, update and configure numbers in bulk.",                 "Search numbers by capability - including SMS, MMS, Fax, Identity Services and Emergency Services.",                                                        "Find toll-free vanity numbers by searching your desired text string."</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Steps TC-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll to Headline "Add Telnyx voice, SMS, MMS, and fax capabilities to your existing number." </t>
+  </si>
+  <si>
+    <t>The logo of the following companies must be present on the page: "Cisco", "PHILIPS", "aircall", "talkdesk", "replicant"</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -521,16 +521,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
